--- a/covid19/data_covid19_lab_by_time_2022-01-21.xlsx
+++ b/covid19/data_covid19_lab_by_time_2022-01-21.xlsx
@@ -39155,10 +39155,10 @@
         <v>44526</v>
       </c>
       <c r="M606">
-        <v>13780</v>
+        <v>13779</v>
       </c>
       <c r="N606">
-        <v>2726</v>
+        <v>2727</v>
       </c>
       <c r="O606">
         <v>16.5</v>
@@ -41651,10 +41651,10 @@
         <v>44565</v>
       </c>
       <c r="M645">
-        <v>19337</v>
+        <v>19336</v>
       </c>
       <c r="N645">
-        <v>8004</v>
+        <v>8005</v>
       </c>
       <c r="O645">
         <v>29.3</v>
@@ -41779,10 +41779,10 @@
         <v>44567</v>
       </c>
       <c r="M647">
-        <v>18392</v>
+        <v>18391</v>
       </c>
       <c r="N647">
-        <v>6208</v>
+        <v>6209</v>
       </c>
       <c r="O647">
         <v>25.2</v>
@@ -41907,10 +41907,10 @@
         <v>44569</v>
       </c>
       <c r="M649">
-        <v>8515</v>
+        <v>8514</v>
       </c>
       <c r="N649">
-        <v>4428</v>
+        <v>4429</v>
       </c>
       <c r="O649">
         <v>34.2</v>
@@ -41971,10 +41971,10 @@
         <v>44570</v>
       </c>
       <c r="M650">
-        <v>9239</v>
+        <v>9238</v>
       </c>
       <c r="N650">
-        <v>5167</v>
+        <v>5168</v>
       </c>
       <c r="O650">
         <v>35.9</v>
@@ -42035,10 +42035,10 @@
         <v>44571</v>
       </c>
       <c r="M651">
-        <v>21263</v>
+        <v>21260</v>
       </c>
       <c r="N651">
-        <v>12114</v>
+        <v>12117</v>
       </c>
       <c r="O651">
         <v>36.3</v>
@@ -42099,10 +42099,10 @@
         <v>44572</v>
       </c>
       <c r="M652">
-        <v>18293</v>
+        <v>18286</v>
       </c>
       <c r="N652">
-        <v>10890</v>
+        <v>10897</v>
       </c>
       <c r="O652">
         <v>37.3</v>
@@ -42163,10 +42163,10 @@
         <v>44573</v>
       </c>
       <c r="M653">
-        <v>19007</v>
+        <v>19005</v>
       </c>
       <c r="N653">
-        <v>11100</v>
+        <v>11102</v>
       </c>
       <c r="O653">
         <v>36.9</v>
@@ -42227,13 +42227,13 @@
         <v>44574</v>
       </c>
       <c r="M654">
-        <v>18615</v>
+        <v>18607</v>
       </c>
       <c r="N654">
-        <v>10854</v>
+        <v>10862</v>
       </c>
       <c r="O654">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="P654" s="2">
         <v>44582</v>
@@ -42291,13 +42291,13 @@
         <v>44575</v>
       </c>
       <c r="M655">
-        <v>17140</v>
+        <v>16774</v>
       </c>
       <c r="N655">
-        <v>10949</v>
+        <v>11315</v>
       </c>
       <c r="O655">
-        <v>39</v>
+        <v>40.3</v>
       </c>
       <c r="P655" s="2">
         <v>44582</v>
@@ -42355,13 +42355,13 @@
         <v>44576</v>
       </c>
       <c r="M656">
-        <v>10404</v>
+        <v>9641</v>
       </c>
       <c r="N656">
-        <v>6948</v>
+        <v>7711</v>
       </c>
       <c r="O656">
-        <v>40</v>
+        <v>44.4</v>
       </c>
       <c r="P656" s="2">
         <v>44582</v>
@@ -42419,13 +42419,13 @@
         <v>44577</v>
       </c>
       <c r="M657">
-        <v>11219</v>
+        <v>10408</v>
       </c>
       <c r="N657">
-        <v>7801</v>
+        <v>8612</v>
       </c>
       <c r="O657">
-        <v>41</v>
+        <v>45.3</v>
       </c>
       <c r="P657" s="2">
         <v>44582</v>
@@ -42483,13 +42483,13 @@
         <v>44578</v>
       </c>
       <c r="M658">
-        <v>27259</v>
+        <v>25620</v>
       </c>
       <c r="N658">
-        <v>19107</v>
+        <v>20746</v>
       </c>
       <c r="O658">
-        <v>41.2</v>
+        <v>44.7</v>
       </c>
       <c r="P658" s="2">
         <v>44582</v>
@@ -42547,13 +42547,13 @@
         <v>44579</v>
       </c>
       <c r="M659">
-        <v>25528</v>
+        <v>23862</v>
       </c>
       <c r="N659">
-        <v>16784</v>
+        <v>18450</v>
       </c>
       <c r="O659">
-        <v>39.7</v>
+        <v>43.6</v>
       </c>
       <c r="P659" s="2">
         <v>44582</v>
@@ -42611,13 +42611,13 @@
         <v>44580</v>
       </c>
       <c r="M660">
-        <v>18666</v>
+        <v>14406</v>
       </c>
       <c r="N660">
-        <v>12504</v>
+        <v>16764</v>
       </c>
       <c r="O660">
-        <v>40.1</v>
+        <v>53.8</v>
       </c>
       <c r="P660" s="2">
         <v>44582</v>
@@ -42675,13 +42675,13 @@
         <v>44581</v>
       </c>
       <c r="M661">
-        <v>2974</v>
+        <v>-1878</v>
       </c>
       <c r="N661">
-        <v>2023</v>
+        <v>6875</v>
       </c>
       <c r="O661">
-        <v>40.5</v>
+        <v>137.6</v>
       </c>
       <c r="P661" s="2">
         <v>44582</v>
